--- a/CPA/facturas/factura-de.xlsx
+++ b/CPA/facturas/factura-de.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="195" windowWidth="13980" windowHeight="8760"/>
@@ -12,15 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Rechnung!$B$1:$I$70</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
-  <si>
-    <t>+34 945 18 6888 / +34 620 83 80 70</t>
-  </si>
   <si>
     <t>Steuernummer</t>
   </si>
@@ -99,9 +96,6 @@
     <t xml:space="preserve"> Kontaktperson</t>
   </si>
   <si>
-    <t xml:space="preserve"> Herr Javier Burgos Villameriel</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lieferant:</t>
   </si>
   <si>
@@ -109,12 +103,6 @@
   </si>
   <si>
     <t>Zeit                         (Stunde)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CPA Vitoria 06 S.L.</t>
-  </si>
-  <si>
-    <t>(ES) B01398213</t>
   </si>
   <si>
     <t xml:space="preserve">RECHNUNG </t>
@@ -148,9 +136,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">               I.B.A.N - ES88 0049 5475 8628 9504 0365</t>
-  </si>
-  <si>
     <t xml:space="preserve">                              BANK: Banco Santander</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t xml:space="preserve">                              B.I.C - BASKES2BXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">               I.B.A.N - ES20 2095 3112 29 1090452045  </t>
-  </si>
-  <si>
     <t xml:space="preserve">                              BANK: Kutxabank</t>
   </si>
   <si>
@@ -178,21 +160,6 @@
     <t xml:space="preserve">                                           CPA Vitoria 06 S.L.U</t>
   </si>
   <si>
-    <t>BÖCO Böddecker&amp;Co.Gmbh&amp;Co.KG</t>
-  </si>
-  <si>
-    <t>DE121103960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C/Jose Domingo Olarte,25-7ºB  01010 Vitoria-SPAIN </t>
-  </si>
-  <si>
-    <t>Herr Marcel Brodowski</t>
-  </si>
-  <si>
-    <t>Flieth 9-42327 Wuppertal Postfach 11 01 26-42301 Wuppertal    -Germany-</t>
-  </si>
-  <si>
     <t>Stunden</t>
   </si>
   <si>
@@ -208,11 +175,44 @@
     <t>0322-15</t>
   </si>
   <si>
-    <t xml:space="preserve">Herr Marcel Brodowski beauftragt die Firma CPA Vitoria 06 S.L.U, dass die Firma die Stock im werk Vitoria überprüft.                                                                                                           
+    <t xml:space="preserve">Cerradura portón. Heckklappenschloss, Ref: A4477401900 / A4477400135 / A4477400335 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               I.B.A.N - ES20 2095 3112 29 10558771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               I.B.A.N - ES88 0049 5475 8628 95789145</t>
+  </si>
+  <si>
+    <t>Herr Hazard Chelsea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr Hazard Chelsea beauftragt die Firma CPA Vitoria 06 S.L.U, dass die Firma die Stock im werk Vitoria überprüft.                                                                                                           
 Cerradura portón. Heckklappenschloss Ref: A4477401900 / A4477400135 / A4477400335 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cerradura portón. Heckklappenschloss, Ref: A4477401900 / A4477400135 / A4477400335 </t>
+    <t>DE65498</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Herr Pepito Milfor</t>
+  </si>
+  <si>
+    <t>Flieth 9-42327 adfadsl adsfa 11 01 26-42301 adfsasd  -Germany-</t>
+  </si>
+  <si>
+    <t>Aouate</t>
+  </si>
+  <si>
+    <t>+34 945 654981531 / +34 6654981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C/Falsa,6-7ºB  01010 Vitoria-SPAIN </t>
+  </si>
+  <si>
+    <t>XXX 06 S.L.</t>
+  </si>
+  <si>
+    <t>(ES) B01548614</t>
   </si>
 </sst>
 </file>
@@ -1155,51 +1155,284 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1215,44 +1448,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1260,207 +1461,6 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1972,8 +1972,8 @@
   </sheetPr>
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:G38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1992,16 +1992,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1">
       <c r="A1" s="20"/>
-      <c r="B1" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="132"/>
+      <c r="B1" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
@@ -2009,14 +2009,14 @@
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1">
       <c r="A2" s="20"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -2024,14 +2024,14 @@
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
@@ -2039,14 +2039,14 @@
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1">
       <c r="A4" s="20"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -2054,14 +2054,14 @@
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1">
       <c r="A5" s="20"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -2069,14 +2069,14 @@
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1">
       <c r="A6" s="20"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -2084,14 +2084,14 @@
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1">
       <c r="A7" s="20"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -2099,14 +2099,14 @@
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1">
       <c r="A8" s="20"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -2114,14 +2114,14 @@
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1">
       <c r="A9" s="20"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -2129,14 +2129,14 @@
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1">
       <c r="A10" s="20"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -2144,14 +2144,14 @@
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1">
       <c r="A11" s="20"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -2159,14 +2159,14 @@
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1">
       <c r="A12" s="20"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="13" spans="1:13" s="76" customFormat="1" ht="23.25">
       <c r="A13" s="75"/>
-      <c r="B13" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
+      <c r="B13" s="160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
       <c r="J13" s="75"/>
       <c r="K13" s="75"/>
       <c r="L13" s="75"/>
@@ -2206,14 +2206,14 @@
     </row>
     <row r="15" spans="1:13" s="76" customFormat="1" ht="24" thickBot="1">
       <c r="A15" s="75"/>
-      <c r="B15" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="142"/>
+      <c r="B15" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="166"/>
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
       <c r="H15" s="77"/>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="16" spans="1:13" ht="33.75" customHeight="1" thickBot="1">
       <c r="A16" s="20"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="168"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -2256,20 +2256,20 @@
     <row r="18" spans="1:13" s="66" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
       <c r="A18" s="63"/>
       <c r="B18" s="52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="85"/>
       <c r="D18" s="54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="130"/>
+      <c r="G18" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="157"/>
       <c r="I18" s="57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="64"/>
       <c r="K18" s="64"/>
@@ -2278,21 +2278,21 @@
     </row>
     <row r="19" spans="1:13" s="29" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
       <c r="A19" s="26"/>
-      <c r="B19" s="154" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="155"/>
+      <c r="B19" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="126"/>
       <c r="D19" s="14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="119"/>
+      <c r="G19" s="179" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="180"/>
       <c r="I19" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -2301,20 +2301,20 @@
     </row>
     <row r="20" spans="1:13" s="58" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
       <c r="A20" s="51"/>
-      <c r="B20" s="136" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="134" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="135"/>
-      <c r="G20" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="114"/>
-      <c r="I20" s="115"/>
+      <c r="B20" s="161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="162"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="134"/>
+      <c r="G20" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="154"/>
+      <c r="I20" s="155"/>
       <c r="J20" s="62"/>
       <c r="K20" s="62"/>
       <c r="L20" s="51"/>
@@ -2322,20 +2322,20 @@
     </row>
     <row r="21" spans="1:13" s="32" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
       <c r="A21" s="30"/>
-      <c r="B21" s="125" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="117"/>
-      <c r="G21" s="108">
+      <c r="B21" s="146" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="123" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="124"/>
+      <c r="G21" s="150">
         <v>42277</v>
       </c>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" s="30"/>
@@ -2359,20 +2359,20 @@
     <row r="23" spans="1:13" s="58" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
       <c r="A23" s="51"/>
       <c r="B23" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" s="55"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="130"/>
+      <c r="G23" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="157"/>
       <c r="I23" s="57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
@@ -2381,21 +2381,21 @@
     </row>
     <row r="24" spans="1:13" ht="66" customHeight="1" thickBot="1">
       <c r="A24" s="20"/>
-      <c r="B24" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="159" t="s">
+      <c r="B24" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="149"/>
+      <c r="D24" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="131"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="160"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="116" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="161"/>
+      <c r="H24" s="132"/>
       <c r="I24" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -2405,19 +2405,19 @@
     <row r="25" spans="1:13" s="61" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
       <c r="A25" s="59"/>
       <c r="B25" s="70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="72"/>
-      <c r="E25" s="134" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="135"/>
-      <c r="G25" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
+      <c r="E25" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="134"/>
+      <c r="G25" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="154"/>
+      <c r="I25" s="155"/>
       <c r="J25" s="60"/>
       <c r="K25" s="60"/>
       <c r="L25" s="59"/>
@@ -2425,18 +2425,18 @@
     </row>
     <row r="26" spans="1:13" s="29" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
       <c r="A26" s="28"/>
-      <c r="B26" s="125" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="108">
+      <c r="B26" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="150">
         <v>42277</v>
       </c>
-      <c r="H26" s="109"/>
-      <c r="I26" s="110"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="152"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
       <c r="L26" s="28"/>
@@ -2459,18 +2459,18 @@
     </row>
     <row r="28" spans="1:13" s="58" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
       <c r="A28" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="122" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="124"/>
+        <v>13</v>
+      </c>
+      <c r="B28" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="144"/>
       <c r="J28" s="62"/>
       <c r="K28" s="62"/>
       <c r="L28" s="51"/>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="29" spans="1:13" s="39" customFormat="1" ht="119.25" customHeight="1" thickBot="1">
       <c r="A29" s="37"/>
-      <c r="B29" s="162" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="164"/>
+      <c r="B29" s="135" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="137"/>
       <c r="J29" s="38"/>
       <c r="K29" s="38"/>
       <c r="L29" s="37"/>
@@ -2495,19 +2495,19 @@
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="156" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="158"/>
+      <c r="B30" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
       <c r="H30" s="49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2531,14 +2531,14 @@
     </row>
     <row r="32" spans="1:13" ht="34.5" customHeight="1">
       <c r="A32" s="20"/>
-      <c r="B32" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="101"/>
+      <c r="B32" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="100"/>
       <c r="H32" s="78"/>
       <c r="I32" s="17"/>
       <c r="J32" s="21"/>
@@ -2548,12 +2548,12 @@
     </row>
     <row r="33" spans="1:13" ht="34.5" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="78"/>
       <c r="I33" s="17"/>
       <c r="J33" s="21"/>
@@ -2563,16 +2563,16 @@
     </row>
     <row r="34" spans="1:13" ht="34.5" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="146" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="165"/>
+      <c r="B34" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="138"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="20"/>
@@ -2580,14 +2580,14 @@
     </row>
     <row r="35" spans="1:13" ht="42" customHeight="1">
       <c r="A35" s="20"/>
-      <c r="B35" s="149"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="166"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="139"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="20"/>
@@ -2595,24 +2595,24 @@
     </row>
     <row r="36" spans="1:13" ht="34.5" customHeight="1">
       <c r="A36" s="20"/>
-      <c r="B36" s="167" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="145"/>
+      <c r="B36" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="89"/>
       <c r="H36" s="78">
-        <v>99.5</v>
+        <v>58</v>
       </c>
       <c r="I36" s="17">
         <f>H36*26.39</f>
-        <v>2625.8049999999998</v>
+        <v>1530.6200000000001</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
@@ -2621,20 +2621,20 @@
     </row>
     <row r="37" spans="1:13" ht="34.5" customHeight="1">
       <c r="A37" s="20"/>
-      <c r="B37" s="167" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="145"/>
+      <c r="B37" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="89"/>
       <c r="H37" s="78">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I37" s="17">
         <f t="shared" ref="I37:I38" si="0">H37*26.39</f>
-        <v>316.68</v>
+        <v>131.94999999999999</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
@@ -2643,14 +2643,14 @@
     </row>
     <row r="38" spans="1:13" ht="34.5" customHeight="1">
       <c r="A38" s="20"/>
-      <c r="B38" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="112"/>
+      <c r="B38" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="178"/>
       <c r="H38" s="78">
         <v>1</v>
       </c>
@@ -2665,12 +2665,12 @@
     </row>
     <row r="39" spans="1:13" ht="34.5" customHeight="1">
       <c r="A39" s="20"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="101"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="100"/>
       <c r="H39" s="78"/>
       <c r="I39" s="17"/>
       <c r="J39" s="21"/>
@@ -2680,12 +2680,12 @@
     </row>
     <row r="40" spans="1:13" ht="34.5" customHeight="1">
       <c r="A40" s="20"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="101"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="100"/>
       <c r="H40" s="78"/>
       <c r="I40" s="17"/>
       <c r="J40" s="21"/>
@@ -2695,12 +2695,12 @@
     </row>
     <row r="41" spans="1:13" ht="34.5" customHeight="1">
       <c r="A41" s="20"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="101"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="100"/>
       <c r="H41" s="78"/>
       <c r="I41" s="17"/>
       <c r="J41" s="21"/>
@@ -2710,12 +2710,12 @@
     </row>
     <row r="42" spans="1:13" ht="34.5" customHeight="1">
       <c r="A42" s="20"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="101"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="100"/>
       <c r="H42" s="78"/>
       <c r="I42" s="17"/>
       <c r="J42" s="21"/>
@@ -2725,12 +2725,12 @@
     </row>
     <row r="43" spans="1:13" ht="34.5" customHeight="1">
       <c r="A43" s="20"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="101"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="100"/>
       <c r="H43" s="78"/>
       <c r="I43" s="17"/>
       <c r="J43" s="21"/>
@@ -2755,21 +2755,21 @@
     </row>
     <row r="45" spans="1:13" ht="34.5" customHeight="1" thickBot="1">
       <c r="A45" s="20"/>
-      <c r="B45" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
+      <c r="B45" s="175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="176"/>
       <c r="H45" s="67">
         <f>SUM(H32:H44)</f>
-        <v>112.5</v>
+        <v>64</v>
       </c>
       <c r="I45" s="86">
         <f>SUM(I32:I44)</f>
-        <v>2968.8749999999995</v>
+        <v>1688.9600000000003</v>
       </c>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
@@ -2929,14 +2929,14 @@
     <row r="56" spans="1:13" s="44" customFormat="1" ht="23.25">
       <c r="A56" s="41"/>
       <c r="B56" s="42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" s="98"/>
+      <c r="E56" s="171" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="105"/>
       <c r="G56" s="43"/>
       <c r="H56" s="42"/>
       <c r="I56" s="42"/>
@@ -2948,12 +2948,12 @@
     <row r="57" spans="1:13" s="44" customFormat="1" ht="23.25">
       <c r="A57" s="41"/>
       <c r="B57" s="42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
       <c r="I57" s="42"/>
@@ -2994,20 +2994,20 @@
     </row>
     <row r="60" spans="1:13" s="44" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="A60" s="41"/>
-      <c r="B60" s="139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="170"/>
-      <c r="D60" s="171" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="172"/>
-      <c r="F60" s="173"/>
-      <c r="G60" s="139" t="s">
+      <c r="B60" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="93"/>
+      <c r="D60" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="174"/>
-      <c r="I60" s="170"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="97"/>
+      <c r="I60" s="93"/>
       <c r="J60" s="41"/>
       <c r="K60" s="41"/>
       <c r="L60" s="41"/>
@@ -3015,20 +3015,20 @@
     </row>
     <row r="61" spans="1:13" s="44" customFormat="1" ht="24" customHeight="1">
       <c r="A61" s="41"/>
-      <c r="B61" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="90"/>
-      <c r="D61" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="90"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="90"/>
-      <c r="I61" s="96"/>
+      <c r="B61" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="102"/>
+      <c r="D61" s="170" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="102"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="102"/>
+      <c r="I61" s="103"/>
       <c r="J61" s="41"/>
       <c r="K61" s="41"/>
       <c r="L61" s="41"/>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="62" spans="1:13" s="44" customFormat="1" ht="24" customHeight="1">
       <c r="A62" s="41"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="178" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="179"/>
-      <c r="F62" s="180"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="98"/>
-      <c r="I62" s="175"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="112"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="106"/>
       <c r="J62" s="41"/>
       <c r="K62" s="41"/>
       <c r="L62" s="41"/>
@@ -3053,16 +3053,16 @@
     </row>
     <row r="63" spans="1:13" s="44" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A63" s="41"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="177" t="s">
-        <v>30</v>
-      </c>
-      <c r="E63" s="94"/>
-      <c r="F63" s="176"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="175"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="108"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="106"/>
       <c r="J63" s="41"/>
       <c r="K63" s="41"/>
       <c r="L63" s="41"/>
@@ -3070,16 +3070,16 @@
     </row>
     <row r="64" spans="1:13" s="44" customFormat="1" ht="24" customHeight="1">
       <c r="A64" s="41"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" s="90"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="98"/>
-      <c r="I64" s="175"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="102"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="106"/>
       <c r="J64" s="41"/>
       <c r="K64" s="41"/>
       <c r="L64" s="41"/>
@@ -3087,16 +3087,16 @@
     </row>
     <row r="65" spans="1:13" s="44" customFormat="1" ht="24" customHeight="1">
       <c r="A65" s="41"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="178" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="179"/>
-      <c r="F65" s="180"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="98"/>
-      <c r="I65" s="175"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="112"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="104"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="106"/>
       <c r="J65" s="41"/>
       <c r="K65" s="41"/>
       <c r="L65" s="41"/>
@@ -3104,16 +3104,16 @@
     </row>
     <row r="66" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A66" s="20"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="177" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="94"/>
-      <c r="F66" s="176"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="176"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="108"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="109"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
@@ -3151,16 +3151,16 @@
     </row>
     <row r="69" spans="1:13" ht="51" customHeight="1">
       <c r="A69" s="20"/>
-      <c r="B69" s="168" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="169"/>
-      <c r="D69" s="169"/>
-      <c r="E69" s="169"/>
-      <c r="F69" s="169"/>
-      <c r="G69" s="169"/>
-      <c r="H69" s="169"/>
-      <c r="I69" s="169"/>
+      <c r="B69" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
@@ -3558,29 +3558,22 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="G61:I66"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B61:C66"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B1:G12"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B32:G32"/>
@@ -3597,22 +3590,29 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B61:C66"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="G61:I66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.81" right="0.47244094488188981" top="0.19" bottom="0.27559055118110237" header="0" footer="0.19685039370078741"/>
